--- a/KPN_model_summary_gender_categorized_merged_allabx.xlsx
+++ b/KPN_model_summary_gender_categorized_merged_allabx.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5862,6 +5862,618 @@
         </is>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B191">
+        <v>1.949993489118026e-41</v>
+      </c>
+      <c r="C191">
+        <v>19.26715602857632</v>
+      </c>
+      <c r="D191">
+        <v>-4.865178993727496</v>
+      </c>
+      <c r="E191">
+        <v>1.143532694916006e-06</v>
+      </c>
+      <c r="F191">
+        <v>7.524190342496107e-58</v>
+      </c>
+      <c r="G191">
+        <v>4.786175685614378e-25</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B192">
+        <v>1.047992406395753</v>
+      </c>
+      <c r="C192">
+        <v>0.009550447799722394</v>
+      </c>
+      <c r="D192">
+        <v>4.908287134806678</v>
+      </c>
+      <c r="E192">
+        <v>9.187527592856661e-07</v>
+      </c>
+      <c r="F192">
+        <v>1.028570266527557</v>
+      </c>
+      <c r="G192">
+        <v>1.067810524035388</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Specimen_typeother</t>
+        </is>
+      </c>
+      <c r="B193">
+        <v>0.9990288573289787</v>
+      </c>
+      <c r="C193">
+        <v>0.08591900568955699</v>
+      </c>
+      <c r="D193">
+        <v>-0.01130849371207797</v>
+      </c>
+      <c r="E193">
+        <v>0.9909773197680506</v>
+      </c>
+      <c r="F193">
+        <v>0.8441719451610779</v>
+      </c>
+      <c r="G193">
+        <v>1.182280513770871</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Specimen_typeRespiratory</t>
+        </is>
+      </c>
+      <c r="B194">
+        <v>0.653224920749101</v>
+      </c>
+      <c r="C194">
+        <v>0.09558079878319813</v>
+      </c>
+      <c r="D194">
+        <v>-4.455222934364498</v>
+      </c>
+      <c r="E194">
+        <v>8.380606335151297e-06</v>
+      </c>
+      <c r="F194">
+        <v>0.5414153342584654</v>
+      </c>
+      <c r="G194">
+        <v>0.7875515843106367</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Specimen_typeUrine</t>
+        </is>
+      </c>
+      <c r="B195">
+        <v>0.871934037114984</v>
+      </c>
+      <c r="C195">
+        <v>0.07404593993396408</v>
+      </c>
+      <c r="D195">
+        <v>-1.850763236539096</v>
+      </c>
+      <c r="E195">
+        <v>0.0642036221377104</v>
+      </c>
+      <c r="F195">
+        <v>0.7542871774363854</v>
+      </c>
+      <c r="G195">
+        <v>1.008350330457849</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Specimen_typeWound &amp; soft tissues</t>
+        </is>
+      </c>
+      <c r="B196">
+        <v>1.000668250665032</v>
+      </c>
+      <c r="C196">
+        <v>0.08401908789825828</v>
+      </c>
+      <c r="D196">
+        <v>0.007950901416432178</v>
+      </c>
+      <c r="E196">
+        <v>0.9936561653549565</v>
+      </c>
+      <c r="F196">
+        <v>0.8487283628100275</v>
+      </c>
+      <c r="G196">
+        <v>1.179838262617296</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>HospitalCHBH</t>
+        </is>
+      </c>
+      <c r="B197">
+        <v>0.3875487016949927</v>
+      </c>
+      <c r="C197">
+        <v>0.1600587204351798</v>
+      </c>
+      <c r="D197">
+        <v>-5.922287481214648</v>
+      </c>
+      <c r="E197">
+        <v>3.174939657609115e-09</v>
+      </c>
+      <c r="F197">
+        <v>0.2826074560157678</v>
+      </c>
+      <c r="G197">
+        <v>0.5294255678109484</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>HospitalCNGMO</t>
+        </is>
+      </c>
+      <c r="B198">
+        <v>1.30107387830818</v>
+      </c>
+      <c r="C198">
+        <v>0.4753114263927906</v>
+      </c>
+      <c r="D198">
+        <v>0.5537211375328404</v>
+      </c>
+      <c r="E198">
+        <v>0.5797697069592305</v>
+      </c>
+      <c r="F198">
+        <v>0.5290678256955028</v>
+      </c>
+      <c r="G198">
+        <v>3.510129777184626</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>HospitalRabta</t>
+        </is>
+      </c>
+      <c r="B199">
+        <v>0.2989064061391349</v>
+      </c>
+      <c r="C199">
+        <v>0.1937184116410836</v>
+      </c>
+      <c r="D199">
+        <v>-6.233918435057435</v>
+      </c>
+      <c r="E199">
+        <v>4.549100063747805e-10</v>
+      </c>
+      <c r="F199">
+        <v>0.2037614931454496</v>
+      </c>
+      <c r="G199">
+        <v>0.4357156652452083</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>HospitalTCB</t>
+        </is>
+      </c>
+      <c r="B200">
+        <v>0.9313338815755413</v>
+      </c>
+      <c r="C200">
+        <v>0.1344625481022051</v>
+      </c>
+      <c r="D200">
+        <v>-0.5290502089522586</v>
+      </c>
+      <c r="E200">
+        <v>0.5967706202619545</v>
+      </c>
+      <c r="F200">
+        <v>0.7144137173457489</v>
+      </c>
+      <c r="G200">
+        <v>1.210586364456798</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="B201">
+        <v>0.2042614581068638</v>
+      </c>
+      <c r="C201">
+        <v>0.165887934726535</v>
+      </c>
+      <c r="D201">
+        <v>-9.574864205714878</v>
+      </c>
+      <c r="E201">
+        <v>1.019912466829873e-21</v>
+      </c>
+      <c r="F201">
+        <v>0.1471148733333632</v>
+      </c>
+      <c r="G201">
+        <v>0.2819680781964216</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B202">
+        <v>0.2781029051115721</v>
+      </c>
+      <c r="C202">
+        <v>0.1245347088180019</v>
+      </c>
+      <c r="D202">
+        <v>-10.276364586704</v>
+      </c>
+      <c r="E202">
+        <v>9.006079417170985e-25</v>
+      </c>
+      <c r="F202">
+        <v>0.2173875787481296</v>
+      </c>
+      <c r="G202">
+        <v>0.3543194910725941</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>GenderF</t>
+        </is>
+      </c>
+      <c r="B203">
+        <v>0.7364947102219679</v>
+      </c>
+      <c r="C203">
+        <v>0.04667786420796057</v>
+      </c>
+      <c r="D203">
+        <v>-6.552425450781537</v>
+      </c>
+      <c r="E203">
+        <v>5.66099816982559e-11</v>
+      </c>
+      <c r="F203">
+        <v>0.6720719930984718</v>
+      </c>
+      <c r="G203">
+        <v>0.8070214661807554</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>HospitalCHBH:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="B204">
+        <v>2.343788196993692</v>
+      </c>
+      <c r="C204">
+        <v>0.2857815781916495</v>
+      </c>
+      <c r="D204">
+        <v>2.980487802529208</v>
+      </c>
+      <c r="E204">
+        <v>0.002877896989144335</v>
+      </c>
+      <c r="F204">
+        <v>1.329218476924106</v>
+      </c>
+      <c r="G204">
+        <v>4.08188467832268</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>HospitalCNGMO:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>HospitalRabta:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="B206">
+        <v>2.338670033406201</v>
+      </c>
+      <c r="C206">
+        <v>0.2798031821250126</v>
+      </c>
+      <c r="D206">
+        <v>3.036357197749866</v>
+      </c>
+      <c r="E206">
+        <v>0.002394555052029372</v>
+      </c>
+      <c r="F206">
+        <v>1.348618240176538</v>
+      </c>
+      <c r="G206">
+        <v>4.042353319373585</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>HospitalTCB:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="B207">
+        <v>1.303485683578708</v>
+      </c>
+      <c r="C207">
+        <v>0.4313454542708406</v>
+      </c>
+      <c r="D207">
+        <v>0.6144540730518631</v>
+      </c>
+      <c r="E207">
+        <v>0.5389153131547566</v>
+      </c>
+      <c r="F207">
+        <v>0.541652139900454</v>
+      </c>
+      <c r="G207">
+        <v>2.983176629121618</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>HospitalCHBH:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B208">
+        <v>3.001174941099489</v>
+      </c>
+      <c r="C208">
+        <v>0.1761185766910956</v>
+      </c>
+      <c r="D208">
+        <v>6.240135933844147</v>
+      </c>
+      <c r="E208">
+        <v>4.371907995547408e-10</v>
+      </c>
+      <c r="F208">
+        <v>2.128088385240857</v>
+      </c>
+      <c r="G208">
+        <v>4.245445594512282</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>HospitalCNGMO:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B209">
+        <v>2.012433320594806</v>
+      </c>
+      <c r="C209">
+        <v>0.5109833199503171</v>
+      </c>
+      <c r="D209">
+        <v>1.368625099555075</v>
+      </c>
+      <c r="E209">
+        <v>0.1711164940604356</v>
+      </c>
+      <c r="F209">
+        <v>0.7015380192432163</v>
+      </c>
+      <c r="G209">
+        <v>5.329289847359406</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>HospitalRabta:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B210">
+        <v>2.895238107311508</v>
+      </c>
+      <c r="C210">
+        <v>0.211369827567489</v>
+      </c>
+      <c r="D210">
+        <v>5.029418662317643</v>
+      </c>
+      <c r="E210">
+        <v>4.919691389254079e-07</v>
+      </c>
+      <c r="F210">
+        <v>1.917344812397091</v>
+      </c>
+      <c r="G210">
+        <v>4.393179137146878</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>HospitalTCB:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B211">
+        <v>1.99619346290885</v>
+      </c>
+      <c r="C211">
+        <v>0.1547658455126479</v>
+      </c>
+      <c r="D211">
+        <v>4.466373677006553</v>
+      </c>
+      <c r="E211">
+        <v>7.955660186636874e-06</v>
+      </c>
+      <c r="F211">
+        <v>1.475382356051192</v>
+      </c>
+      <c r="G211">
+        <v>2.706917107712356</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>SXT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KPN_model_summary_gender_categorized_merged_allabx.xlsx
+++ b/KPN_model_summary_gender_categorized_merged_allabx.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6474,6 +6474,528 @@
         </is>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B212">
+        <v>2.739275404261982e-112</v>
+      </c>
+      <c r="C212">
+        <v>24.77271601144333</v>
+      </c>
+      <c r="D212">
+        <v>-10.36954675709533</v>
+      </c>
+      <c r="E212">
+        <v>3.411389371628055e-25</v>
+      </c>
+      <c r="F212">
+        <v>2.024051504041591e-133</v>
+      </c>
+      <c r="G212">
+        <v>3.060408745163685e-91</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B213">
+        <v>1.13609995950807</v>
+      </c>
+      <c r="C213">
+        <v>0.01227980250051377</v>
+      </c>
+      <c r="D213">
+        <v>10.39115319218002</v>
+      </c>
+      <c r="E213">
+        <v>2.720437656928805e-25</v>
+      </c>
+      <c r="F213">
+        <v>1.109131770857509</v>
+      </c>
+      <c r="G213">
+        <v>1.163835233989738</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Specimen_typeother</t>
+        </is>
+      </c>
+      <c r="B214">
+        <v>0.7873899537786169</v>
+      </c>
+      <c r="C214">
+        <v>0.1110123134232805</v>
+      </c>
+      <c r="D214">
+        <v>-2.153199513725651</v>
+      </c>
+      <c r="E214">
+        <v>0.03130300188647972</v>
+      </c>
+      <c r="F214">
+        <v>0.6331707152625055</v>
+      </c>
+      <c r="G214">
+        <v>0.9784872850853259</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Specimen_typeRespiratory</t>
+        </is>
+      </c>
+      <c r="B215">
+        <v>0.5975810744520984</v>
+      </c>
+      <c r="C215">
+        <v>0.1195533034007147</v>
+      </c>
+      <c r="D215">
+        <v>-4.306575395881504</v>
+      </c>
+      <c r="E215">
+        <v>1.658014335821558e-05</v>
+      </c>
+      <c r="F215">
+        <v>0.4723698948825547</v>
+      </c>
+      <c r="G215">
+        <v>0.7548688973041973</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Specimen_typeUrine</t>
+        </is>
+      </c>
+      <c r="B216">
+        <v>0.6283244116518715</v>
+      </c>
+      <c r="C216">
+        <v>0.09542346174286635</v>
+      </c>
+      <c r="D216">
+        <v>-4.869857562741592</v>
+      </c>
+      <c r="E216">
+        <v>1.116787225151061e-06</v>
+      </c>
+      <c r="F216">
+        <v>0.5212768242716972</v>
+      </c>
+      <c r="G216">
+        <v>0.7577947528162462</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Specimen_typeWound &amp; soft tissues</t>
+        </is>
+      </c>
+      <c r="B217">
+        <v>0.8616304390094731</v>
+      </c>
+      <c r="C217">
+        <v>0.1036174040281501</v>
+      </c>
+      <c r="D217">
+        <v>-1.437295468759839</v>
+      </c>
+      <c r="E217">
+        <v>0.1506340558382742</v>
+      </c>
+      <c r="F217">
+        <v>0.7031611904248042</v>
+      </c>
+      <c r="G217">
+        <v>1.055577748291711</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>HospitalCHBH</t>
+        </is>
+      </c>
+      <c r="B218">
+        <v>0.2469828767240796</v>
+      </c>
+      <c r="C218">
+        <v>0.2186812637033222</v>
+      </c>
+      <c r="D218">
+        <v>-6.394860931744881</v>
+      </c>
+      <c r="E218">
+        <v>1.606935406072353e-10</v>
+      </c>
+      <c r="F218">
+        <v>0.1600109447956319</v>
+      </c>
+      <c r="G218">
+        <v>0.3774263422482198</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>HospitalCNGMO</t>
+        </is>
+      </c>
+      <c r="B219">
+        <v>0.8551143957151932</v>
+      </c>
+      <c r="C219">
+        <v>0.4581951089018857</v>
+      </c>
+      <c r="D219">
+        <v>-0.3416012519476278</v>
+      </c>
+      <c r="E219">
+        <v>0.7326509949070338</v>
+      </c>
+      <c r="F219">
+        <v>0.3414622350443337</v>
+      </c>
+      <c r="G219">
+        <v>2.100357510593966</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>HospitalTCB</t>
+        </is>
+      </c>
+      <c r="B220">
+        <v>0.7374625541100627</v>
+      </c>
+      <c r="C220">
+        <v>0.1635997794239589</v>
+      </c>
+      <c r="D220">
+        <v>-1.861493745392306</v>
+      </c>
+      <c r="E220">
+        <v>0.06267448307947809</v>
+      </c>
+      <c r="F220">
+        <v>0.5343568961482102</v>
+      </c>
+      <c r="G220">
+        <v>1.015326189401102</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="B221">
+        <v>0.1751083169337728</v>
+      </c>
+      <c r="C221">
+        <v>0.2294954369635499</v>
+      </c>
+      <c r="D221">
+        <v>-7.592092312062168</v>
+      </c>
+      <c r="E221">
+        <v>3.147806244090618e-14</v>
+      </c>
+      <c r="F221">
+        <v>0.1108873571682885</v>
+      </c>
+      <c r="G221">
+        <v>0.2729098799616956</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B222">
+        <v>0.2404926322365203</v>
+      </c>
+      <c r="C222">
+        <v>0.1611208584379195</v>
+      </c>
+      <c r="D222">
+        <v>-8.844701045618217</v>
+      </c>
+      <c r="E222">
+        <v>9.177367799809633e-19</v>
+      </c>
+      <c r="F222">
+        <v>0.1750642547097513</v>
+      </c>
+      <c r="G222">
+        <v>0.3294294254595298</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>GenderF</t>
+        </is>
+      </c>
+      <c r="B223">
+        <v>0.8291972810592688</v>
+      </c>
+      <c r="C223">
+        <v>0.06364523514550369</v>
+      </c>
+      <c r="D223">
+        <v>-2.942831101030215</v>
+      </c>
+      <c r="E223">
+        <v>0.00325225799907553</v>
+      </c>
+      <c r="F223">
+        <v>0.7319187350048831</v>
+      </c>
+      <c r="G223">
+        <v>0.939349477382989</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>HospitalCHBH:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="B224">
+        <v>3.042335421895682</v>
+      </c>
+      <c r="C224">
+        <v>0.4159323903694834</v>
+      </c>
+      <c r="D224">
+        <v>2.675015163830329</v>
+      </c>
+      <c r="E224">
+        <v>0.007472587019224445</v>
+      </c>
+      <c r="F224">
+        <v>1.311135616803233</v>
+      </c>
+      <c r="G224">
+        <v>6.750207097466561</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>HospitalCNGMO:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>HospitalTCB:Ward_ED_ICUED</t>
+        </is>
+      </c>
+      <c r="B226">
+        <v>1.415772429663642</v>
+      </c>
+      <c r="C226">
+        <v>0.5265116355960461</v>
+      </c>
+      <c r="D226">
+        <v>0.6603372942513585</v>
+      </c>
+      <c r="E226">
+        <v>0.5090374024045634</v>
+      </c>
+      <c r="F226">
+        <v>0.4686435918126847</v>
+      </c>
+      <c r="G226">
+        <v>3.799266388146391</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>HospitalCHBH:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B227">
+        <v>3.472528998949473</v>
+      </c>
+      <c r="C227">
+        <v>0.242570149906032</v>
+      </c>
+      <c r="D227">
+        <v>5.13205415886129</v>
+      </c>
+      <c r="E227">
+        <v>2.865970000453856e-07</v>
+      </c>
+      <c r="F227">
+        <v>2.165756455575788</v>
+      </c>
+      <c r="G227">
+        <v>5.609057043838499</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>HospitalCNGMO:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B228">
+        <v>3.573601659993845</v>
+      </c>
+      <c r="C228">
+        <v>0.5006997089511203</v>
+      </c>
+      <c r="D228">
+        <v>2.543588368044857</v>
+      </c>
+      <c r="E228">
+        <v>0.01097202997634257</v>
+      </c>
+      <c r="F228">
+        <v>1.33916432239849</v>
+      </c>
+      <c r="G228">
+        <v>9.686798314095258</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>HospitalTCB:Ward_ED_ICUOther</t>
+        </is>
+      </c>
+      <c r="B229">
+        <v>3.467871074136891</v>
+      </c>
+      <c r="C229">
+        <v>0.1852223581114965</v>
+      </c>
+      <c r="D229">
+        <v>6.713773083615963</v>
+      </c>
+      <c r="E229">
+        <v>1.896551695123008e-11</v>
+      </c>
+      <c r="F229">
+        <v>2.413805353123875</v>
+      </c>
+      <c r="G229">
+        <v>4.991314100864938</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
